--- a/Banco de Dados/Lista de brinquedos.xlsx
+++ b/Banco de Dados/Lista de brinquedos.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="116">
   <si>
     <t xml:space="preserve">Nome do brinquedo </t>
   </si>
@@ -367,12 +367,6 @@
   </si>
   <si>
     <t>0.00</t>
-  </si>
-  <si>
-    <t>INSERT INTO Produtos (codigobarrasprod, Nomeproduto, Valor,ValorDesconto, FaixaEtaria, Fabricante, PrazoGarantia, Quantidade, DataCadastro, statusproduto) VALUES (</t>
-  </si>
-  <si>
-    <t>INSERT INTO Produtos (codigobarrasprod, Nomeproduto, Valor,DataCadastroProd, FaixaEtaria, Fabricante, PrazoGarantia, Quantidade, DataCadastro, statusproduto) VALUES (</t>
   </si>
   <si>
     <t>INSERT INTO Produtos (codigobarrasprod, Nomeprod, Valor,DataCadastroProd, DescricaoProd, CategoriaProd, QuantidadeProd) VALUES (</t>
@@ -597,8 +591,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="19">
+  <cellStyleXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -743,7 +741,7 @@
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="19">
+  <cellStyles count="23">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -753,6 +751,8 @@
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -762,6 +762,8 @@
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="17">
@@ -1326,7 +1328,7 @@
   <dimension ref="A1:K56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="J2" sqref="J2:J51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1339,7 +1341,7 @@
     <col min="7" max="7" width="17.5" style="42" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="97.83203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="172.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="219.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="94.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -1400,7 +1402,7 @@
         <v>1</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="J2" s="2" t="str">
         <f>CONCATENATE(Tabela2[[#This Row],[Column1]],Tabela2[[#This Row],[Codigo barras]],",'",Tabela2[[#This Row],[Nome do brinquedo ]],"',",Tabela2[[#This Row],[Preço]],",","Now()",",'",Tabela2[[#This Row],[Faixa etária ]],"','",Tabela2[[#This Row],[Fabricante]],"',",Tabela2[[#This Row],[Quantidade]],");")</f>
@@ -1433,11 +1435,11 @@
         <v>2</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J3" s="2" t="str">
         <f>CONCATENATE(Tabela2[[#This Row],[Column1]],Tabela2[[#This Row],[Codigo barras]],",'",Tabela2[[#This Row],[Nome do brinquedo ]],"',",Tabela2[[#This Row],[Preço]],",","Now()",",'",Tabela2[[#This Row],[Faixa etária ]],"','",Tabela2[[#This Row],[Fabricante]],"',",Tabela2[[#This Row],[Quantidade]],");")</f>
-        <v>INSERT INTO Produtos (codigobarrasprod, Nomeproduto, Valor,DataCadastroProd, FaixaEtaria, Fabricante, PrazoGarantia, Quantidade, DataCadastro, statusproduto) VALUES (2,'Mordedor Macaco Brincalhão',29.99,Now(),'0 à 12 meses','Mattel',1);</v>
+        <v>INSERT INTO Produtos (codigobarrasprod, Nomeprod, Valor,DataCadastroProd, DescricaoProd, CategoriaProd, QuantidadeProd) VALUES (2,'Mordedor Macaco Brincalhão',29.99,Now(),'0 à 12 meses','Mattel',1);</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1470,7 +1472,7 @@
       </c>
       <c r="J4" s="2" t="str">
         <f>CONCATENATE(Tabela2[[#This Row],[Column1]],Tabela2[[#This Row],[Codigo barras]],",'",Tabela2[[#This Row],[Nome do brinquedo ]],"',",Tabela2[[#This Row],[Preço]],",","Now()",",'",Tabela2[[#This Row],[Faixa etária ]],"','",Tabela2[[#This Row],[Fabricante]],"',",Tabela2[[#This Row],[Quantidade]],");")</f>
-        <v>INSERT INTO Produtos (codigobarrasprod, Nomeproduto, Valor,ValorDesconto, FaixaEtaria, Fabricante, PrazoGarantia, Quantidade, DataCadastro, statusproduto) VALUES (3,'Robôzinho BeatBo',399.99,Now(),'0 à 12 meses','Mattel',1);</v>
+        <v>INSERT INTO Produtos (codigobarrasprod, Nomeprod, Valor,DataCadastroProd, DescricaoProd, CategoriaProd, QuantidadeProd) VALUES (3,'Robôzinho BeatBo',399.99,Now(),'0 à 12 meses','Mattel',1);</v>
       </c>
       <c r="K4" s="4" t="s">
         <v>16</v>
@@ -1506,7 +1508,7 @@
       </c>
       <c r="J5" s="2" t="str">
         <f>CONCATENATE(Tabela2[[#This Row],[Column1]],Tabela2[[#This Row],[Codigo barras]],",'",Tabela2[[#This Row],[Nome do brinquedo ]],"',",Tabela2[[#This Row],[Preço]],",","Now()",",'",Tabela2[[#This Row],[Faixa etária ]],"','",Tabela2[[#This Row],[Fabricante]],"',",Tabela2[[#This Row],[Quantidade]],");")</f>
-        <v>INSERT INTO Produtos (codigobarrasprod, Nomeproduto, Valor,ValorDesconto, FaixaEtaria, Fabricante, PrazoGarantia, Quantidade, DataCadastro, statusproduto) VALUES (4,'Cachorrinho - Aprendendo a Brincar',179.50,Now(),'0 à 12 meses','Mattel',1);</v>
+        <v>INSERT INTO Produtos (codigobarrasprod, Nomeprod, Valor,DataCadastroProd, DescricaoProd, CategoriaProd, QuantidadeProd) VALUES (4,'Cachorrinho - Aprendendo a Brincar',179.50,Now(),'0 à 12 meses','Mattel',1);</v>
       </c>
       <c r="K5" s="9" t="s">
         <v>17</v>
@@ -1542,7 +1544,7 @@
       </c>
       <c r="J6" s="2" t="str">
         <f>CONCATENATE(Tabela2[[#This Row],[Column1]],Tabela2[[#This Row],[Codigo barras]],",'",Tabela2[[#This Row],[Nome do brinquedo ]],"',",Tabela2[[#This Row],[Preço]],",","Now()",",'",Tabela2[[#This Row],[Faixa etária ]],"','",Tabela2[[#This Row],[Fabricante]],"',",Tabela2[[#This Row],[Quantidade]],");")</f>
-        <v>INSERT INTO Produtos (codigobarrasprod, Nomeproduto, Valor,ValorDesconto, FaixaEtaria, Fabricante, PrazoGarantia, Quantidade, DataCadastro, statusproduto) VALUES (5,'Lamparina Aprender e Brincar ',139.99,Now(),'0 à 12 meses','Mattel',1);</v>
+        <v>INSERT INTO Produtos (codigobarrasprod, Nomeprod, Valor,DataCadastroProd, DescricaoProd, CategoriaProd, QuantidadeProd) VALUES (5,'Lamparina Aprender e Brincar ',139.99,Now(),'0 à 12 meses','Mattel',1);</v>
       </c>
       <c r="K6" s="13" t="s">
         <v>18</v>
@@ -1576,7 +1578,7 @@
       </c>
       <c r="J7" s="2" t="str">
         <f>CONCATENATE(Tabela2[[#This Row],[Column1]],Tabela2[[#This Row],[Codigo barras]],",'",Tabela2[[#This Row],[Nome do brinquedo ]],"',",Tabela2[[#This Row],[Preço]],",","Now()",",'",Tabela2[[#This Row],[Faixa etária ]],"','",Tabela2[[#This Row],[Fabricante]],"',",Tabela2[[#This Row],[Quantidade]],");")</f>
-        <v>INSERT INTO Produtos (codigobarrasprod, Nomeproduto, Valor,ValorDesconto, FaixaEtaria, Fabricante, PrazoGarantia, Quantidade, DataCadastro, statusproduto) VALUES (6,'Chocalho e Mordedor',19.99,Now(),'0 à 12 meses','ELKA',1);</v>
+        <v>INSERT INTO Produtos (codigobarrasprod, Nomeprod, Valor,DataCadastroProd, DescricaoProd, CategoriaProd, QuantidadeProd) VALUES (6,'Chocalho e Mordedor',19.99,Now(),'0 à 12 meses','ELKA',1);</v>
       </c>
       <c r="K7" s="18" t="s">
         <v>19</v>
@@ -1610,7 +1612,7 @@
       </c>
       <c r="J8" s="2" t="str">
         <f>CONCATENATE(Tabela2[[#This Row],[Column1]],Tabela2[[#This Row],[Codigo barras]],",'",Tabela2[[#This Row],[Nome do brinquedo ]],"',",Tabela2[[#This Row],[Preço]],",","Now()",",'",Tabela2[[#This Row],[Faixa etária ]],"','",Tabela2[[#This Row],[Fabricante]],"',",Tabela2[[#This Row],[Quantidade]],");")</f>
-        <v>INSERT INTO Produtos (codigobarrasprod, Nomeproduto, Valor,ValorDesconto, FaixaEtaria, Fabricante, PrazoGarantia, Quantidade, DataCadastro, statusproduto) VALUES (7,'Chocalho Galinha Pintadinha',39.99,Now(),'0 à 12 meses','ELKA',1);</v>
+        <v>INSERT INTO Produtos (codigobarrasprod, Nomeprod, Valor,DataCadastroProd, DescricaoProd, CategoriaProd, QuantidadeProd) VALUES (7,'Chocalho Galinha Pintadinha',39.99,Now(),'0 à 12 meses','ELKA',1);</v>
       </c>
       <c r="K8" s="22" t="s">
         <v>20</v>
@@ -1646,7 +1648,7 @@
       </c>
       <c r="J9" s="2" t="str">
         <f>CONCATENATE(Tabela2[[#This Row],[Column1]],Tabela2[[#This Row],[Codigo barras]],",'",Tabela2[[#This Row],[Nome do brinquedo ]],"',",Tabela2[[#This Row],[Preço]],",","Now()",",'",Tabela2[[#This Row],[Faixa etária ]],"','",Tabela2[[#This Row],[Fabricante]],"',",Tabela2[[#This Row],[Quantidade]],");")</f>
-        <v>INSERT INTO Produtos (codigobarrasprod, Nomeproduto, Valor,ValorDesconto, FaixaEtaria, Fabricante, PrazoGarantia, Quantidade, DataCadastro, statusproduto) VALUES (8,'Pirâmide de Argolas',49.99,Now(),'De 1 à 2 anos','Mattel',1);</v>
+        <v>INSERT INTO Produtos (codigobarrasprod, Nomeprod, Valor,DataCadastroProd, DescricaoProd, CategoriaProd, QuantidadeProd) VALUES (8,'Pirâmide de Argolas',49.99,Now(),'De 1 à 2 anos','Mattel',1);</v>
       </c>
       <c r="K9" s="27" t="s">
         <v>21</v>
@@ -1680,7 +1682,7 @@
       </c>
       <c r="J10" s="2" t="str">
         <f>CONCATENATE(Tabela2[[#This Row],[Column1]],Tabela2[[#This Row],[Codigo barras]],",'",Tabela2[[#This Row],[Nome do brinquedo ]],"',",Tabela2[[#This Row],[Preço]],",","Now()",",'",Tabela2[[#This Row],[Faixa etária ]],"','",Tabela2[[#This Row],[Fabricante]],"',",Tabela2[[#This Row],[Quantidade]],");")</f>
-        <v>INSERT INTO Produtos (codigobarrasprod, Nomeproduto, Valor,ValorDesconto, FaixaEtaria, Fabricante, PrazoGarantia, Quantidade, DataCadastro, statusproduto) VALUES (9,'Boneca Minnie - Conta histórias',99.99,Now(),'De 1 à 2 anos','ELKA',1);</v>
+        <v>INSERT INTO Produtos (codigobarrasprod, Nomeprod, Valor,DataCadastroProd, DescricaoProd, CategoriaProd, QuantidadeProd) VALUES (9,'Boneca Minnie - Conta histórias',99.99,Now(),'De 1 à 2 anos','ELKA',1);</v>
       </c>
       <c r="K10" s="31" t="s">
         <v>22</v>
@@ -1716,7 +1718,7 @@
       </c>
       <c r="J11" s="2" t="str">
         <f>CONCATENATE(Tabela2[[#This Row],[Column1]],Tabela2[[#This Row],[Codigo barras]],",'",Tabela2[[#This Row],[Nome do brinquedo ]],"',",Tabela2[[#This Row],[Preço]],",","Now()",",'",Tabela2[[#This Row],[Faixa etária ]],"','",Tabela2[[#This Row],[Fabricante]],"',",Tabela2[[#This Row],[Quantidade]],");")</f>
-        <v>INSERT INTO Produtos (codigobarrasprod, Nomeproduto, Valor,ValorDesconto, FaixaEtaria, Fabricante, PrazoGarantia, Quantidade, DataCadastro, statusproduto) VALUES (10,'Mega Bloks - Ônibus da Escola 123 - 45 peças',99.99,Now(),'De 1 à 2 anos','Mattel',1);</v>
+        <v>INSERT INTO Produtos (codigobarrasprod, Nomeprod, Valor,DataCadastroProd, DescricaoProd, CategoriaProd, QuantidadeProd) VALUES (10,'Mega Bloks - Ônibus da Escola 123 - 45 peças',99.99,Now(),'De 1 à 2 anos','Mattel',1);</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1749,7 +1751,7 @@
       </c>
       <c r="J12" s="2" t="str">
         <f>CONCATENATE(Tabela2[[#This Row],[Column1]],Tabela2[[#This Row],[Codigo barras]],",'",Tabela2[[#This Row],[Nome do brinquedo ]],"',",Tabela2[[#This Row],[Preço]],",","Now()",",'",Tabela2[[#This Row],[Faixa etária ]],"','",Tabela2[[#This Row],[Fabricante]],"',",Tabela2[[#This Row],[Quantidade]],");")</f>
-        <v>INSERT INTO Produtos (codigobarrasprod, Nomeproduto, Valor,ValorDesconto, FaixaEtaria, Fabricante, PrazoGarantia, Quantidade, DataCadastro, statusproduto) VALUES (11,'Figura de atividade - Montro Labirinto Divertido',189.99,Now(),'De 1 à 2 anos','Mattel',1);</v>
+        <v>INSERT INTO Produtos (codigobarrasprod, Nomeprod, Valor,DataCadastroProd, DescricaoProd, CategoriaProd, QuantidadeProd) VALUES (11,'Figura de atividade - Montro Labirinto Divertido',189.99,Now(),'De 1 à 2 anos','Mattel',1);</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1782,7 +1784,7 @@
       </c>
       <c r="J13" s="2" t="str">
         <f>CONCATENATE(Tabela2[[#This Row],[Column1]],Tabela2[[#This Row],[Codigo barras]],",'",Tabela2[[#This Row],[Nome do brinquedo ]],"',",Tabela2[[#This Row],[Preço]],",","Now()",",'",Tabela2[[#This Row],[Faixa etária ]],"','",Tabela2[[#This Row],[Fabricante]],"',",Tabela2[[#This Row],[Quantidade]],");")</f>
-        <v>INSERT INTO Produtos (codigobarrasprod, Nomeproduto, Valor,ValorDesconto, FaixaEtaria, Fabricante, PrazoGarantia, Quantidade, DataCadastro, statusproduto) VALUES (12,'Mochila animada do cachorrinho',199.99,Now(),'De 1 à 2 anos','Mattel',1);</v>
+        <v>INSERT INTO Produtos (codigobarrasprod, Nomeprod, Valor,DataCadastroProd, DescricaoProd, CategoriaProd, QuantidadeProd) VALUES (12,'Mochila animada do cachorrinho',199.99,Now(),'De 1 à 2 anos','Mattel',1);</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1815,7 +1817,7 @@
       </c>
       <c r="J14" s="2" t="str">
         <f>CONCATENATE(Tabela2[[#This Row],[Column1]],Tabela2[[#This Row],[Codigo barras]],",'",Tabela2[[#This Row],[Nome do brinquedo ]],"',",Tabela2[[#This Row],[Preço]],",","Now()",",'",Tabela2[[#This Row],[Faixa etária ]],"','",Tabela2[[#This Row],[Fabricante]],"',",Tabela2[[#This Row],[Quantidade]],");")</f>
-        <v>INSERT INTO Produtos (codigobarrasprod, Nomeproduto, Valor,ValorDesconto, FaixaEtaria, Fabricante, PrazoGarantia, Quantidade, DataCadastro, statusproduto) VALUES (13,'Piano cachorrinho aprender e brincar ',179.99,Now(),'De 1 à 2 anos','Mattel',1);</v>
+        <v>INSERT INTO Produtos (codigobarrasprod, Nomeprod, Valor,DataCadastroProd, DescricaoProd, CategoriaProd, QuantidadeProd) VALUES (13,'Piano cachorrinho aprender e brincar ',179.99,Now(),'De 1 à 2 anos','Mattel',1);</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1848,7 +1850,7 @@
       </c>
       <c r="J15" s="2" t="str">
         <f>CONCATENATE(Tabela2[[#This Row],[Column1]],Tabela2[[#This Row],[Codigo barras]],",'",Tabela2[[#This Row],[Nome do brinquedo ]],"',",Tabela2[[#This Row],[Preço]],",","Now()",",'",Tabela2[[#This Row],[Faixa etária ]],"','",Tabela2[[#This Row],[Fabricante]],"',",Tabela2[[#This Row],[Quantidade]],");")</f>
-        <v>INSERT INTO Produtos (codigobarrasprod, Nomeproduto, Valor,ValorDesconto, FaixaEtaria, Fabricante, PrazoGarantia, Quantidade, DataCadastro, statusproduto) VALUES (14,'Pelúcia Interativa ',99.99,Now(),'De 1 à 2 anos','Mattel',1);</v>
+        <v>INSERT INTO Produtos (codigobarrasprod, Nomeprod, Valor,DataCadastroProd, DescricaoProd, CategoriaProd, QuantidadeProd) VALUES (14,'Pelúcia Interativa ',99.99,Now(),'De 1 à 2 anos','Mattel',1);</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1881,7 +1883,7 @@
       </c>
       <c r="J16" s="2" t="str">
         <f>CONCATENATE(Tabela2[[#This Row],[Column1]],Tabela2[[#This Row],[Codigo barras]],",'",Tabela2[[#This Row],[Nome do brinquedo ]],"',",Tabela2[[#This Row],[Preço]],",","Now()",",'",Tabela2[[#This Row],[Faixa etária ]],"','",Tabela2[[#This Row],[Fabricante]],"',",Tabela2[[#This Row],[Quantidade]],");")</f>
-        <v>INSERT INTO Produtos (codigobarrasprod, Nomeproduto, Valor,ValorDesconto, FaixaEtaria, Fabricante, PrazoGarantia, Quantidade, DataCadastro, statusproduto) VALUES (15,'Boneco Baby Alive Menino - loiro',249.60,Now(),'De 3 à 4 anos','Hasbro',1);</v>
+        <v>INSERT INTO Produtos (codigobarrasprod, Nomeprod, Valor,DataCadastroProd, DescricaoProd, CategoriaProd, QuantidadeProd) VALUES (15,'Boneco Baby Alive Menino - loiro',249.60,Now(),'De 3 à 4 anos','Hasbro',1);</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1914,7 +1916,7 @@
       </c>
       <c r="J17" s="2" t="str">
         <f>CONCATENATE(Tabela2[[#This Row],[Column1]],Tabela2[[#This Row],[Codigo barras]],",'",Tabela2[[#This Row],[Nome do brinquedo ]],"',",Tabela2[[#This Row],[Preço]],",","Now()",",'",Tabela2[[#This Row],[Faixa etária ]],"','",Tabela2[[#This Row],[Fabricante]],"',",Tabela2[[#This Row],[Quantidade]],");")</f>
-        <v>INSERT INTO Produtos (codigobarrasprod, Nomeproduto, Valor,ValorDesconto, FaixaEtaria, Fabricante, PrazoGarantia, Quantidade, DataCadastro, statusproduto) VALUES (16,'Boneca Baby Alive - loira',499.00,Now(),'De 3 à 4 anos','Hasbro',1);</v>
+        <v>INSERT INTO Produtos (codigobarrasprod, Nomeprod, Valor,DataCadastroProd, DescricaoProd, CategoriaProd, QuantidadeProd) VALUES (16,'Boneca Baby Alive - loira',499.00,Now(),'De 3 à 4 anos','Hasbro',1);</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1947,7 +1949,7 @@
       </c>
       <c r="J18" s="2" t="str">
         <f>CONCATENATE(Tabela2[[#This Row],[Column1]],Tabela2[[#This Row],[Codigo barras]],",'",Tabela2[[#This Row],[Nome do brinquedo ]],"',",Tabela2[[#This Row],[Preço]],",","Now()",",'",Tabela2[[#This Row],[Faixa etária ]],"','",Tabela2[[#This Row],[Fabricante]],"',",Tabela2[[#This Row],[Quantidade]],");")</f>
-        <v>INSERT INTO Produtos (codigobarrasprod, Nomeproduto, Valor,ValorDesconto, FaixaEtaria, Fabricante, PrazoGarantia, Quantidade, DataCadastro, statusproduto) VALUES (17,'Microfone com base - Barbie',149.60,Now(),'De 3 à 4 anos','Barão Distribuidor',1);</v>
+        <v>INSERT INTO Produtos (codigobarrasprod, Nomeprod, Valor,DataCadastroProd, DescricaoProd, CategoriaProd, QuantidadeProd) VALUES (17,'Microfone com base - Barbie',149.60,Now(),'De 3 à 4 anos','Barão Distribuidor',1);</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1980,7 +1982,7 @@
       </c>
       <c r="J19" s="2" t="str">
         <f>CONCATENATE(Tabela2[[#This Row],[Column1]],Tabela2[[#This Row],[Codigo barras]],",'",Tabela2[[#This Row],[Nome do brinquedo ]],"',",Tabela2[[#This Row],[Preço]],",","Now()",",'",Tabela2[[#This Row],[Faixa etária ]],"','",Tabela2[[#This Row],[Fabricante]],"',",Tabela2[[#This Row],[Quantidade]],");")</f>
-        <v>INSERT INTO Produtos (codigobarrasprod, Nomeproduto, Valor,ValorDesconto, FaixaEtaria, Fabricante, PrazoGarantia, Quantidade, DataCadastro, statusproduto) VALUES (18,'Boneca Little Mommy',89.80,Now(),'De 3 à 4 anos','Mattel',1);</v>
+        <v>INSERT INTO Produtos (codigobarrasprod, Nomeprod, Valor,DataCadastroProd, DescricaoProd, CategoriaProd, QuantidadeProd) VALUES (18,'Boneca Little Mommy',89.80,Now(),'De 3 à 4 anos','Mattel',1);</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -2013,7 +2015,7 @@
       </c>
       <c r="J20" s="2" t="str">
         <f>CONCATENATE(Tabela2[[#This Row],[Column1]],Tabela2[[#This Row],[Codigo barras]],",'",Tabela2[[#This Row],[Nome do brinquedo ]],"',",Tabela2[[#This Row],[Preço]],",","Now()",",'",Tabela2[[#This Row],[Faixa etária ]],"','",Tabela2[[#This Row],[Fabricante]],"',",Tabela2[[#This Row],[Quantidade]],");")</f>
-        <v>INSERT INTO Produtos (codigobarrasprod, Nomeproduto, Valor,ValorDesconto, FaixaEtaria, Fabricante, PrazoGarantia, Quantidade, DataCadastro, statusproduto) VALUES (19,'Mini Veículo com personagem - PJ Masks',69.99,Now(),'De 3 à 4 anos','DTC',1);</v>
+        <v>INSERT INTO Produtos (codigobarrasprod, Nomeprod, Valor,DataCadastroProd, DescricaoProd, CategoriaProd, QuantidadeProd) VALUES (19,'Mini Veículo com personagem - PJ Masks',69.99,Now(),'De 3 à 4 anos','DTC',1);</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -2046,7 +2048,7 @@
       </c>
       <c r="J21" s="2" t="str">
         <f>CONCATENATE(Tabela2[[#This Row],[Column1]],Tabela2[[#This Row],[Codigo barras]],",'",Tabela2[[#This Row],[Nome do brinquedo ]],"',",Tabela2[[#This Row],[Preço]],",","Now()",",'",Tabela2[[#This Row],[Faixa etária ]],"','",Tabela2[[#This Row],[Fabricante]],"',",Tabela2[[#This Row],[Quantidade]],");")</f>
-        <v>INSERT INTO Produtos (codigobarrasprod, Nomeproduto, Valor,ValorDesconto, FaixaEtaria, Fabricante, PrazoGarantia, Quantidade, DataCadastro, statusproduto) VALUES (20,'Boneco Liga da Justiça - Superman',39.99,Now(),'De 3 à 4 anos','Mattel',1);</v>
+        <v>INSERT INTO Produtos (codigobarrasprod, Nomeprod, Valor,DataCadastroProd, DescricaoProd, CategoriaProd, QuantidadeProd) VALUES (20,'Boneco Liga da Justiça - Superman',39.99,Now(),'De 3 à 4 anos','Mattel',1);</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -2079,7 +2081,7 @@
       </c>
       <c r="J22" s="2" t="str">
         <f>CONCATENATE(Tabela2[[#This Row],[Column1]],Tabela2[[#This Row],[Codigo barras]],",'",Tabela2[[#This Row],[Nome do brinquedo ]],"',",Tabela2[[#This Row],[Preço]],",","Now()",",'",Tabela2[[#This Row],[Faixa etária ]],"','",Tabela2[[#This Row],[Fabricante]],"',",Tabela2[[#This Row],[Quantidade]],");")</f>
-        <v>INSERT INTO Produtos (codigobarrasprod, Nomeproduto, Valor,ValorDesconto, FaixaEtaria, Fabricante, PrazoGarantia, Quantidade, DataCadastro, statusproduto) VALUES (21,'Boneco Liga da Justiça - Coringa',39.99,Now(),'De 3 à 4 anos','Mattel',1);</v>
+        <v>INSERT INTO Produtos (codigobarrasprod, Nomeprod, Valor,DataCadastroProd, DescricaoProd, CategoriaProd, QuantidadeProd) VALUES (21,'Boneco Liga da Justiça - Coringa',39.99,Now(),'De 3 à 4 anos','Mattel',1);</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -2112,7 +2114,7 @@
       </c>
       <c r="J23" s="2" t="str">
         <f>CONCATENATE(Tabela2[[#This Row],[Column1]],Tabela2[[#This Row],[Codigo barras]],",'",Tabela2[[#This Row],[Nome do brinquedo ]],"',",Tabela2[[#This Row],[Preço]],",","Now()",",'",Tabela2[[#This Row],[Faixa etária ]],"','",Tabela2[[#This Row],[Fabricante]],"',",Tabela2[[#This Row],[Quantidade]],");")</f>
-        <v>INSERT INTO Produtos (codigobarrasprod, Nomeproduto, Valor,ValorDesconto, FaixaEtaria, Fabricante, PrazoGarantia, Quantidade, DataCadastro, statusproduto) VALUES (22,'Veiculo Furgão Patrulheiro - Patrulha Canina',699.99,Now(),'De 5 à 6 anos','Sunny',1);</v>
+        <v>INSERT INTO Produtos (codigobarrasprod, Nomeprod, Valor,DataCadastroProd, DescricaoProd, CategoriaProd, QuantidadeProd) VALUES (22,'Veiculo Furgão Patrulheiro - Patrulha Canina',699.99,Now(),'De 5 à 6 anos','Sunny',1);</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -2145,7 +2147,7 @@
       </c>
       <c r="J24" s="2" t="str">
         <f>CONCATENATE(Tabela2[[#This Row],[Column1]],Tabela2[[#This Row],[Codigo barras]],",'",Tabela2[[#This Row],[Nome do brinquedo ]],"',",Tabela2[[#This Row],[Preço]],",","Now()",",'",Tabela2[[#This Row],[Faixa etária ]],"','",Tabela2[[#This Row],[Fabricante]],"',",Tabela2[[#This Row],[Quantidade]],");")</f>
-        <v>INSERT INTO Produtos (codigobarrasprod, Nomeproduto, Valor,ValorDesconto, FaixaEtaria, Fabricante, PrazoGarantia, Quantidade, DataCadastro, statusproduto) VALUES (23,'Boneco - AuthenticGames',109.99,Now(),'De 5 à 6 anos','ZR Toys',1);</v>
+        <v>INSERT INTO Produtos (codigobarrasprod, Nomeprod, Valor,DataCadastroProd, DescricaoProd, CategoriaProd, QuantidadeProd) VALUES (23,'Boneco - AuthenticGames',109.99,Now(),'De 5 à 6 anos','ZR Toys',1);</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -2176,7 +2178,7 @@
       </c>
       <c r="J25" s="2" t="str">
         <f>CONCATENATE(Tabela2[[#This Row],[Column1]],Tabela2[[#This Row],[Codigo barras]],",'",Tabela2[[#This Row],[Nome do brinquedo ]],"',",Tabela2[[#This Row],[Preço]],",","Now()",",'",Tabela2[[#This Row],[Faixa etária ]],"','",Tabela2[[#This Row],[Fabricante]],"',",Tabela2[[#This Row],[Quantidade]],");")</f>
-        <v>INSERT INTO Produtos (codigobarrasprod, Nomeproduto, Valor,ValorDesconto, FaixaEtaria, Fabricante, PrazoGarantia, Quantidade, DataCadastro, statusproduto) VALUES (24,'Jogo Pizzaria maluca',59.99,Now(),'De 5 à 6 anos','Grow',1);</v>
+        <v>INSERT INTO Produtos (codigobarrasprod, Nomeprod, Valor,DataCadastroProd, DescricaoProd, CategoriaProd, QuantidadeProd) VALUES (24,'Jogo Pizzaria maluca',59.99,Now(),'De 5 à 6 anos','Grow',1);</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -2209,7 +2211,7 @@
       </c>
       <c r="J26" s="2" t="str">
         <f>CONCATENATE(Tabela2[[#This Row],[Column1]],Tabela2[[#This Row],[Codigo barras]],",'",Tabela2[[#This Row],[Nome do brinquedo ]],"',",Tabela2[[#This Row],[Preço]],",","Now()",",'",Tabela2[[#This Row],[Faixa etária ]],"','",Tabela2[[#This Row],[Fabricante]],"',",Tabela2[[#This Row],[Quantidade]],");")</f>
-        <v>INSERT INTO Produtos (codigobarrasprod, Nomeproduto, Valor,ValorDesconto, FaixaEtaria, Fabricante, PrazoGarantia, Quantidade, DataCadastro, statusproduto) VALUES (25,'Massa de Modelar - Super massa',39.99,Now(),'De 5 à 6 anos','Estrela',1);</v>
+        <v>INSERT INTO Produtos (codigobarrasprod, Nomeprod, Valor,DataCadastroProd, DescricaoProd, CategoriaProd, QuantidadeProd) VALUES (25,'Massa de Modelar - Super massa',39.99,Now(),'De 5 à 6 anos','Estrela',1);</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -2242,7 +2244,7 @@
       </c>
       <c r="J27" s="2" t="str">
         <f>CONCATENATE(Tabela2[[#This Row],[Column1]],Tabela2[[#This Row],[Codigo barras]],",'",Tabela2[[#This Row],[Nome do brinquedo ]],"',",Tabela2[[#This Row],[Preço]],",","Now()",",'",Tabela2[[#This Row],[Faixa etária ]],"','",Tabela2[[#This Row],[Fabricante]],"',",Tabela2[[#This Row],[Quantidade]],");")</f>
-        <v>INSERT INTO Produtos (codigobarrasprod, Nomeproduto, Valor,ValorDesconto, FaixaEtaria, Fabricante, PrazoGarantia, Quantidade, DataCadastro, statusproduto) VALUES (26,'Boneco Power Ranger Dino Charger - Armadura de Luxo',79.90,Now(),'De 5 à 6 anos','Sunny',1);</v>
+        <v>INSERT INTO Produtos (codigobarrasprod, Nomeprod, Valor,DataCadastroProd, DescricaoProd, CategoriaProd, QuantidadeProd) VALUES (26,'Boneco Power Ranger Dino Charger - Armadura de Luxo',79.90,Now(),'De 5 à 6 anos','Sunny',1);</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -2273,7 +2275,7 @@
       </c>
       <c r="J28" s="2" t="str">
         <f>CONCATENATE(Tabela2[[#This Row],[Column1]],Tabela2[[#This Row],[Codigo barras]],",'",Tabela2[[#This Row],[Nome do brinquedo ]],"',",Tabela2[[#This Row],[Preço]],",","Now()",",'",Tabela2[[#This Row],[Faixa etária ]],"','",Tabela2[[#This Row],[Fabricante]],"',",Tabela2[[#This Row],[Quantidade]],");")</f>
-        <v>INSERT INTO Produtos (codigobarrasprod, Nomeproduto, Valor,ValorDesconto, FaixaEtaria, Fabricante, PrazoGarantia, Quantidade, DataCadastro, statusproduto) VALUES (27,'Pista Hot Wheels - fuga em alto mar',79.99,Now(),'De 5 à 6 anos','Mattel',1);</v>
+        <v>INSERT INTO Produtos (codigobarrasprod, Nomeprod, Valor,DataCadastroProd, DescricaoProd, CategoriaProd, QuantidadeProd) VALUES (27,'Pista Hot Wheels - fuga em alto mar',79.99,Now(),'De 5 à 6 anos','Mattel',1);</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -2306,7 +2308,7 @@
       </c>
       <c r="J29" s="2" t="str">
         <f>CONCATENATE(Tabela2[[#This Row],[Column1]],Tabela2[[#This Row],[Codigo barras]],",'",Tabela2[[#This Row],[Nome do brinquedo ]],"',",Tabela2[[#This Row],[Preço]],",","Now()",",'",Tabela2[[#This Row],[Faixa etária ]],"','",Tabela2[[#This Row],[Fabricante]],"',",Tabela2[[#This Row],[Quantidade]],");")</f>
-        <v>INSERT INTO Produtos (codigobarrasprod, Nomeproduto, Valor,ValorDesconto, FaixaEtaria, Fabricante, PrazoGarantia, Quantidade, DataCadastro, statusproduto) VALUES (28,'Luva Lança Teias - Spider Man',79.99,Now(),'De 5 à 6 anos','Hasbro',1);</v>
+        <v>INSERT INTO Produtos (codigobarrasprod, Nomeprod, Valor,DataCadastroProd, DescricaoProd, CategoriaProd, QuantidadeProd) VALUES (28,'Luva Lança Teias - Spider Man',79.99,Now(),'De 5 à 6 anos','Hasbro',1);</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -2339,7 +2341,7 @@
       </c>
       <c r="J30" s="2" t="str">
         <f>CONCATENATE(Tabela2[[#This Row],[Column1]],Tabela2[[#This Row],[Codigo barras]],",'",Tabela2[[#This Row],[Nome do brinquedo ]],"',",Tabela2[[#This Row],[Preço]],",","Now()",",'",Tabela2[[#This Row],[Faixa etária ]],"','",Tabela2[[#This Row],[Fabricante]],"',",Tabela2[[#This Row],[Quantidade]],");")</f>
-        <v>INSERT INTO Produtos (codigobarrasprod, Nomeproduto, Valor,ValorDesconto, FaixaEtaria, Fabricante, PrazoGarantia, Quantidade, DataCadastro, statusproduto) VALUES (29,'Lego Super Heroes - Disney - Marvel - Spider man',149.99,Now(),'De 7 à 8 anos ','Lego',1);</v>
+        <v>INSERT INTO Produtos (codigobarrasprod, Nomeprod, Valor,DataCadastroProd, DescricaoProd, CategoriaProd, QuantidadeProd) VALUES (29,'Lego Super Heroes - Disney - Marvel - Spider man',149.99,Now(),'De 7 à 8 anos ','Lego',1);</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -2372,7 +2374,7 @@
       </c>
       <c r="J31" s="2" t="str">
         <f>CONCATENATE(Tabela2[[#This Row],[Column1]],Tabela2[[#This Row],[Codigo barras]],",'",Tabela2[[#This Row],[Nome do brinquedo ]],"',",Tabela2[[#This Row],[Preço]],",","Now()",",'",Tabela2[[#This Row],[Faixa etária ]],"','",Tabela2[[#This Row],[Fabricante]],"',",Tabela2[[#This Row],[Quantidade]],");")</f>
-        <v>INSERT INTO Produtos (codigobarrasprod, Nomeproduto, Valor,ValorDesconto, FaixaEtaria, Fabricante, PrazoGarantia, Quantidade, DataCadastro, statusproduto) VALUES (30,'Lego City - Veículo de Policia Off Road',49.99,Now(),'De 7 à 8 anos ','Lego',1);</v>
+        <v>INSERT INTO Produtos (codigobarrasprod, Nomeprod, Valor,DataCadastroProd, DescricaoProd, CategoriaProd, QuantidadeProd) VALUES (30,'Lego City - Veículo de Policia Off Road',49.99,Now(),'De 7 à 8 anos ','Lego',1);</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -2405,7 +2407,7 @@
       </c>
       <c r="J32" s="2" t="str">
         <f>CONCATENATE(Tabela2[[#This Row],[Column1]],Tabela2[[#This Row],[Codigo barras]],",'",Tabela2[[#This Row],[Nome do brinquedo ]],"',",Tabela2[[#This Row],[Preço]],",","Now()",",'",Tabela2[[#This Row],[Faixa etária ]],"','",Tabela2[[#This Row],[Fabricante]],"',",Tabela2[[#This Row],[Quantidade]],");")</f>
-        <v>INSERT INTO Produtos (codigobarrasprod, Nomeproduto, Valor,ValorDesconto, FaixaEtaria, Fabricante, PrazoGarantia, Quantidade, DataCadastro, statusproduto) VALUES (31,'Veiculo - Avião Patruleiro - Patrulha Canina',419,Now(),'De 7 à 8 anos ','Sunny',1);</v>
+        <v>INSERT INTO Produtos (codigobarrasprod, Nomeprod, Valor,DataCadastroProd, DescricaoProd, CategoriaProd, QuantidadeProd) VALUES (31,'Veiculo - Avião Patruleiro - Patrulha Canina',419,Now(),'De 7 à 8 anos ','Sunny',1);</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -2438,7 +2440,7 @@
       </c>
       <c r="J33" s="2" t="str">
         <f>CONCATENATE(Tabela2[[#This Row],[Column1]],Tabela2[[#This Row],[Codigo barras]],",'",Tabela2[[#This Row],[Nome do brinquedo ]],"',",Tabela2[[#This Row],[Preço]],",","Now()",",'",Tabela2[[#This Row],[Faixa etária ]],"','",Tabela2[[#This Row],[Fabricante]],"',",Tabela2[[#This Row],[Quantidade]],");")</f>
-        <v>INSERT INTO Produtos (codigobarrasprod, Nomeproduto, Valor,ValorDesconto, FaixaEtaria, Fabricante, PrazoGarantia, Quantidade, DataCadastro, statusproduto) VALUES (32,'Lego super Heroes - Poderosos Micros: Iron man',89.99,Now(),'De 7 à 8 anos ','Lego',1);</v>
+        <v>INSERT INTO Produtos (codigobarrasprod, Nomeprod, Valor,DataCadastroProd, DescricaoProd, CategoriaProd, QuantidadeProd) VALUES (32,'Lego super Heroes - Poderosos Micros: Iron man',89.99,Now(),'De 7 à 8 anos ','Lego',1);</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -2471,7 +2473,7 @@
       </c>
       <c r="J34" s="2" t="str">
         <f>CONCATENATE(Tabela2[[#This Row],[Column1]],Tabela2[[#This Row],[Codigo barras]],",'",Tabela2[[#This Row],[Nome do brinquedo ]],"',",Tabela2[[#This Row],[Preço]],",","Now()",",'",Tabela2[[#This Row],[Faixa etária ]],"','",Tabela2[[#This Row],[Fabricante]],"',",Tabela2[[#This Row],[Quantidade]],");")</f>
-        <v>INSERT INTO Produtos (codigobarrasprod, Nomeproduto, Valor,ValorDesconto, FaixaEtaria, Fabricante, PrazoGarantia, Quantidade, DataCadastro, statusproduto) VALUES (33,'Hand Spinner - Ladybug',24.99,Now(),'De 7 à 8 anos ','Novabrink',1);</v>
+        <v>INSERT INTO Produtos (codigobarrasprod, Nomeprod, Valor,DataCadastroProd, DescricaoProd, CategoriaProd, QuantidadeProd) VALUES (33,'Hand Spinner - Ladybug',24.99,Now(),'De 7 à 8 anos ','Novabrink',1);</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -2504,7 +2506,7 @@
       </c>
       <c r="J35" s="2" t="str">
         <f>CONCATENATE(Tabela2[[#This Row],[Column1]],Tabela2[[#This Row],[Codigo barras]],",'",Tabela2[[#This Row],[Nome do brinquedo ]],"',",Tabela2[[#This Row],[Preço]],",","Now()",",'",Tabela2[[#This Row],[Faixa etária ]],"','",Tabela2[[#This Row],[Fabricante]],"',",Tabela2[[#This Row],[Quantidade]],");")</f>
-        <v>INSERT INTO Produtos (codigobarrasprod, Nomeproduto, Valor,ValorDesconto, FaixaEtaria, Fabricante, PrazoGarantia, Quantidade, DataCadastro, statusproduto) VALUES (34,'Hand Spinner - Batman',24.99,Now(),'De 7 à 8 anos ','Novabrink',1);</v>
+        <v>INSERT INTO Produtos (codigobarrasprod, Nomeprod, Valor,DataCadastroProd, DescricaoProd, CategoriaProd, QuantidadeProd) VALUES (34,'Hand Spinner - Batman',24.99,Now(),'De 7 à 8 anos ','Novabrink',1);</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -2537,7 +2539,7 @@
       </c>
       <c r="J36" s="2" t="str">
         <f>CONCATENATE(Tabela2[[#This Row],[Column1]],Tabela2[[#This Row],[Codigo barras]],",'",Tabela2[[#This Row],[Nome do brinquedo ]],"',",Tabela2[[#This Row],[Preço]],",","Now()",",'",Tabela2[[#This Row],[Faixa etária ]],"','",Tabela2[[#This Row],[Fabricante]],"',",Tabela2[[#This Row],[Quantidade]],");")</f>
-        <v>INSERT INTO Produtos (codigobarrasprod, Nomeproduto, Valor,ValorDesconto, FaixaEtaria, Fabricante, PrazoGarantia, Quantidade, DataCadastro, statusproduto) VALUES (35,'Lançador de Dardo - Nerf Rebelle',129.99,Now(),'De 7 à 8 anos ','Hasbro',1);</v>
+        <v>INSERT INTO Produtos (codigobarrasprod, Nomeprod, Valor,DataCadastroProd, DescricaoProd, CategoriaProd, QuantidadeProd) VALUES (35,'Lançador de Dardo - Nerf Rebelle',129.99,Now(),'De 7 à 8 anos ','Hasbro',1);</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -2570,7 +2572,7 @@
       </c>
       <c r="J37" s="2" t="str">
         <f>CONCATENATE(Tabela2[[#This Row],[Column1]],Tabela2[[#This Row],[Codigo barras]],",'",Tabela2[[#This Row],[Nome do brinquedo ]],"',",Tabela2[[#This Row],[Preço]],",","Now()",",'",Tabela2[[#This Row],[Faixa etária ]],"','",Tabela2[[#This Row],[Fabricante]],"',",Tabela2[[#This Row],[Quantidade]],");")</f>
-        <v>INSERT INTO Produtos (codigobarrasprod, Nomeproduto, Valor,ValorDesconto, FaixaEtaria, Fabricante, PrazoGarantia, Quantidade, DataCadastro, statusproduto) VALUES (36,'Pião Beyblade',199.99,Now(),'De 9 à 10 anos ','Hasbro',1);</v>
+        <v>INSERT INTO Produtos (codigobarrasprod, Nomeprod, Valor,DataCadastroProd, DescricaoProd, CategoriaProd, QuantidadeProd) VALUES (36,'Pião Beyblade',199.99,Now(),'De 9 à 10 anos ','Hasbro',1);</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -2603,7 +2605,7 @@
       </c>
       <c r="J38" s="2" t="str">
         <f>CONCATENATE(Tabela2[[#This Row],[Column1]],Tabela2[[#This Row],[Codigo barras]],",'",Tabela2[[#This Row],[Nome do brinquedo ]],"',",Tabela2[[#This Row],[Preço]],",","Now()",",'",Tabela2[[#This Row],[Faixa etária ]],"','",Tabela2[[#This Row],[Fabricante]],"',",Tabela2[[#This Row],[Quantidade]],");")</f>
-        <v>INSERT INTO Produtos (codigobarrasprod, Nomeproduto, Valor,ValorDesconto, FaixaEtaria, Fabricante, PrazoGarantia, Quantidade, DataCadastro, statusproduto) VALUES (37,'Lego Speed Champions - Mercedes',129.99,Now(),'De 9 à 10 anos ','Lego',1);</v>
+        <v>INSERT INTO Produtos (codigobarrasprod, Nomeprod, Valor,DataCadastroProd, DescricaoProd, CategoriaProd, QuantidadeProd) VALUES (37,'Lego Speed Champions - Mercedes',129.99,Now(),'De 9 à 10 anos ','Lego',1);</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -2636,7 +2638,7 @@
       </c>
       <c r="J39" s="2" t="str">
         <f>CONCATENATE(Tabela2[[#This Row],[Column1]],Tabela2[[#This Row],[Codigo barras]],",'",Tabela2[[#This Row],[Nome do brinquedo ]],"',",Tabela2[[#This Row],[Preço]],",","Now()",",'",Tabela2[[#This Row],[Faixa etária ]],"','",Tabela2[[#This Row],[Fabricante]],"',",Tabela2[[#This Row],[Quantidade]],");")</f>
-        <v>INSERT INTO Produtos (codigobarrasprod, Nomeproduto, Valor,ValorDesconto, FaixaEtaria, Fabricante, PrazoGarantia, Quantidade, DataCadastro, statusproduto) VALUES (38,'Lego Manicraft',259.99,Now(),'De 9 à 10 anos ','Lego',1);</v>
+        <v>INSERT INTO Produtos (codigobarrasprod, Nomeprod, Valor,DataCadastroProd, DescricaoProd, CategoriaProd, QuantidadeProd) VALUES (38,'Lego Manicraft',259.99,Now(),'De 9 à 10 anos ','Lego',1);</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -2669,7 +2671,7 @@
       </c>
       <c r="J40" s="2" t="str">
         <f>CONCATENATE(Tabela2[[#This Row],[Column1]],Tabela2[[#This Row],[Codigo barras]],",'",Tabela2[[#This Row],[Nome do brinquedo ]],"',",Tabela2[[#This Row],[Preço]],",","Now()",",'",Tabela2[[#This Row],[Faixa etária ]],"','",Tabela2[[#This Row],[Fabricante]],"',",Tabela2[[#This Row],[Quantidade]],");")</f>
-        <v>INSERT INTO Produtos (codigobarrasprod, Nomeproduto, Valor,ValorDesconto, FaixaEtaria, Fabricante, PrazoGarantia, Quantidade, DataCadastro, statusproduto) VALUES (39,'Conjunto de Pista - Hot Wheels - Super lava rápido',169.99,Now(),'De 9 à 10 anos ','Mattel',1);</v>
+        <v>INSERT INTO Produtos (codigobarrasprod, Nomeprod, Valor,DataCadastroProd, DescricaoProd, CategoriaProd, QuantidadeProd) VALUES (39,'Conjunto de Pista - Hot Wheels - Super lava rápido',169.99,Now(),'De 9 à 10 anos ','Mattel',1);</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -2702,7 +2704,7 @@
       </c>
       <c r="J41" s="2" t="str">
         <f>CONCATENATE(Tabela2[[#This Row],[Column1]],Tabela2[[#This Row],[Codigo barras]],",'",Tabela2[[#This Row],[Nome do brinquedo ]],"',",Tabela2[[#This Row],[Preço]],",","Now()",",'",Tabela2[[#This Row],[Faixa etária ]],"','",Tabela2[[#This Row],[Fabricante]],"',",Tabela2[[#This Row],[Quantidade]],");")</f>
-        <v>INSERT INTO Produtos (codigobarrasprod, Nomeproduto, Valor,ValorDesconto, FaixaEtaria, Fabricante, PrazoGarantia, Quantidade, DataCadastro, statusproduto) VALUES (40,'Bicicleta Pincesas Disney com Cesta - Aro 16',599.99,Now(),'De 9 à 10 anos ','Bandeirante',1);</v>
+        <v>INSERT INTO Produtos (codigobarrasprod, Nomeprod, Valor,DataCadastroProd, DescricaoProd, CategoriaProd, QuantidadeProd) VALUES (40,'Bicicleta Pincesas Disney com Cesta - Aro 16',599.99,Now(),'De 9 à 10 anos ','Bandeirante',1);</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -2735,7 +2737,7 @@
       </c>
       <c r="J42" s="2" t="str">
         <f>CONCATENATE(Tabela2[[#This Row],[Column1]],Tabela2[[#This Row],[Codigo barras]],",'",Tabela2[[#This Row],[Nome do brinquedo ]],"',",Tabela2[[#This Row],[Preço]],",","Now()",",'",Tabela2[[#This Row],[Faixa etária ]],"','",Tabela2[[#This Row],[Fabricante]],"',",Tabela2[[#This Row],[Quantidade]],");")</f>
-        <v>INSERT INTO Produtos (codigobarrasprod, Nomeproduto, Valor,ValorDesconto, FaixaEtaria, Fabricante, PrazoGarantia, Quantidade, DataCadastro, statusproduto) VALUES (41,'Picareta do Jogo - Nível Diamante',59.90,Now(),'De 9 à 10 anos ','ZR Toys',1);</v>
+        <v>INSERT INTO Produtos (codigobarrasprod, Nomeprod, Valor,DataCadastroProd, DescricaoProd, CategoriaProd, QuantidadeProd) VALUES (41,'Picareta do Jogo - Nível Diamante',59.90,Now(),'De 9 à 10 anos ','ZR Toys',1);</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -2768,7 +2770,7 @@
       </c>
       <c r="J43" s="2" t="str">
         <f>CONCATENATE(Tabela2[[#This Row],[Column1]],Tabela2[[#This Row],[Codigo barras]],",'",Tabela2[[#This Row],[Nome do brinquedo ]],"',",Tabela2[[#This Row],[Preço]],",","Now()",",'",Tabela2[[#This Row],[Faixa etária ]],"','",Tabela2[[#This Row],[Fabricante]],"',",Tabela2[[#This Row],[Quantidade]],");")</f>
-        <v>INSERT INTO Produtos (codigobarrasprod, Nomeproduto, Valor,ValorDesconto, FaixaEtaria, Fabricante, PrazoGarantia, Quantidade, DataCadastro, statusproduto) VALUES (42,'noneca Barbie - Fashion com acessórios',129.99,Now(),'De 9 à 10 anos ','Mattel',1);</v>
+        <v>INSERT INTO Produtos (codigobarrasprod, Nomeprod, Valor,DataCadastroProd, DescricaoProd, CategoriaProd, QuantidadeProd) VALUES (42,'noneca Barbie - Fashion com acessórios',129.99,Now(),'De 9 à 10 anos ','Mattel',1);</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -2801,7 +2803,7 @@
       </c>
       <c r="J44" s="2" t="str">
         <f>CONCATENATE(Tabela2[[#This Row],[Column1]],Tabela2[[#This Row],[Codigo barras]],",'",Tabela2[[#This Row],[Nome do brinquedo ]],"',",Tabela2[[#This Row],[Preço]],",","Now()",",'",Tabela2[[#This Row],[Faixa etária ]],"','",Tabela2[[#This Row],[Fabricante]],"',",Tabela2[[#This Row],[Quantidade]],");")</f>
-        <v>INSERT INTO Produtos (codigobarrasprod, Nomeproduto, Valor,ValorDesconto, FaixaEtaria, Fabricante, PrazoGarantia, Quantidade, DataCadastro, statusproduto) VALUES (43,'Casa da Barbie dos sonhos',1599.99,Now(),'De 11 ou mais','Mattel',1);</v>
+        <v>INSERT INTO Produtos (codigobarrasprod, Nomeprod, Valor,DataCadastroProd, DescricaoProd, CategoriaProd, QuantidadeProd) VALUES (43,'Casa da Barbie dos sonhos',1599.99,Now(),'De 11 ou mais','Mattel',1);</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -2834,7 +2836,7 @@
       </c>
       <c r="J45" s="2" t="str">
         <f>CONCATENATE(Tabela2[[#This Row],[Column1]],Tabela2[[#This Row],[Codigo barras]],",'",Tabela2[[#This Row],[Nome do brinquedo ]],"',",Tabela2[[#This Row],[Preço]],",","Now()",",'",Tabela2[[#This Row],[Faixa etária ]],"','",Tabela2[[#This Row],[Fabricante]],"',",Tabela2[[#This Row],[Quantidade]],");")</f>
-        <v>INSERT INTO Produtos (codigobarrasprod, Nomeproduto, Valor,ValorDesconto, FaixaEtaria, Fabricante, PrazoGarantia, Quantidade, DataCadastro, statusproduto) VALUES (44,'Arena Beyblade Burst - azul',119.70,Now(),'De 11 ou mais','Hasbro',1);</v>
+        <v>INSERT INTO Produtos (codigobarrasprod, Nomeprod, Valor,DataCadastroProd, DescricaoProd, CategoriaProd, QuantidadeProd) VALUES (44,'Arena Beyblade Burst - azul',119.70,Now(),'De 11 ou mais','Hasbro',1);</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -2867,7 +2869,7 @@
       </c>
       <c r="J46" s="2" t="str">
         <f>CONCATENATE(Tabela2[[#This Row],[Column1]],Tabela2[[#This Row],[Codigo barras]],",'",Tabela2[[#This Row],[Nome do brinquedo ]],"',",Tabela2[[#This Row],[Preço]],",","Now()",",'",Tabela2[[#This Row],[Faixa etária ]],"','",Tabela2[[#This Row],[Fabricante]],"',",Tabela2[[#This Row],[Quantidade]],");")</f>
-        <v>INSERT INTO Produtos (codigobarrasprod, Nomeproduto, Valor,ValorDesconto, FaixaEtaria, Fabricante, PrazoGarantia, Quantidade, DataCadastro, statusproduto) VALUES (45,'Carrinho Hot Wheels - Veículo Básico',9.99,Now(),'De 11 ou mais','Mattel',1);</v>
+        <v>INSERT INTO Produtos (codigobarrasprod, Nomeprod, Valor,DataCadastroProd, DescricaoProd, CategoriaProd, QuantidadeProd) VALUES (45,'Carrinho Hot Wheels - Veículo Básico',9.99,Now(),'De 11 ou mais','Mattel',1);</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -2900,7 +2902,7 @@
       </c>
       <c r="J47" s="2" t="str">
         <f>CONCATENATE(Tabela2[[#This Row],[Column1]],Tabela2[[#This Row],[Codigo barras]],",'",Tabela2[[#This Row],[Nome do brinquedo ]],"',",Tabela2[[#This Row],[Preço]],",","Now()",",'",Tabela2[[#This Row],[Faixa etária ]],"','",Tabela2[[#This Row],[Fabricante]],"',",Tabela2[[#This Row],[Quantidade]],");")</f>
-        <v>INSERT INTO Produtos (codigobarrasprod, Nomeproduto, Valor,ValorDesconto, FaixaEtaria, Fabricante, PrazoGarantia, Quantidade, DataCadastro, statusproduto) VALUES (46,'Mini Figura e veículo - imaginext DC Comics',49.99,Now(),'De 11 ou mais','Mattel',1);</v>
+        <v>INSERT INTO Produtos (codigobarrasprod, Nomeprod, Valor,DataCadastroProd, DescricaoProd, CategoriaProd, QuantidadeProd) VALUES (46,'Mini Figura e veículo - imaginext DC Comics',49.99,Now(),'De 11 ou mais','Mattel',1);</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -2933,7 +2935,7 @@
       </c>
       <c r="J48" s="2" t="str">
         <f>CONCATENATE(Tabela2[[#This Row],[Column1]],Tabela2[[#This Row],[Codigo barras]],",'",Tabela2[[#This Row],[Nome do brinquedo ]],"',",Tabela2[[#This Row],[Preço]],",","Now()",",'",Tabela2[[#This Row],[Faixa etária ]],"','",Tabela2[[#This Row],[Fabricante]],"',",Tabela2[[#This Row],[Quantidade]],");")</f>
-        <v>INSERT INTO Produtos (codigobarrasprod, Nomeproduto, Valor,ValorDesconto, FaixaEtaria, Fabricante, PrazoGarantia, Quantidade, DataCadastro, statusproduto) VALUES (47,'Boneca Barbie - Dreamtopia - Reino dos doces ',139.99,Now(),'De 11 ou mais','Mattel',1);</v>
+        <v>INSERT INTO Produtos (codigobarrasprod, Nomeprod, Valor,DataCadastroProd, DescricaoProd, CategoriaProd, QuantidadeProd) VALUES (47,'Boneca Barbie - Dreamtopia - Reino dos doces ',139.99,Now(),'De 11 ou mais','Mattel',1);</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -2966,7 +2968,7 @@
       </c>
       <c r="J49" s="2" t="str">
         <f>CONCATENATE(Tabela2[[#This Row],[Column1]],Tabela2[[#This Row],[Codigo barras]],",'",Tabela2[[#This Row],[Nome do brinquedo ]],"',",Tabela2[[#This Row],[Preço]],",","Now()",",'",Tabela2[[#This Row],[Faixa etária ]],"','",Tabela2[[#This Row],[Fabricante]],"',",Tabela2[[#This Row],[Quantidade]],");")</f>
-        <v>INSERT INTO Produtos (codigobarrasprod, Nomeproduto, Valor,ValorDesconto, FaixaEtaria, Fabricante, PrazoGarantia, Quantidade, DataCadastro, statusproduto) VALUES (48,'Balde de soldados - 60 peças',49.99,Now(),'De 11 ou mais','TOYNG',1);</v>
+        <v>INSERT INTO Produtos (codigobarrasprod, Nomeprod, Valor,DataCadastroProd, DescricaoProd, CategoriaProd, QuantidadeProd) VALUES (48,'Balde de soldados - 60 peças',49.99,Now(),'De 11 ou mais','TOYNG',1);</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -2999,7 +3001,7 @@
       </c>
       <c r="J50" s="2" t="str">
         <f>CONCATENATE(Tabela2[[#This Row],[Column1]],Tabela2[[#This Row],[Codigo barras]],",'",Tabela2[[#This Row],[Nome do brinquedo ]],"',",Tabela2[[#This Row],[Preço]],",","Now()",",'",Tabela2[[#This Row],[Faixa etária ]],"','",Tabela2[[#This Row],[Fabricante]],"',",Tabela2[[#This Row],[Quantidade]],");")</f>
-        <v>INSERT INTO Produtos (codigobarrasprod, Nomeproduto, Valor,ValorDesconto, FaixaEtaria, Fabricante, PrazoGarantia, Quantidade, DataCadastro, statusproduto) VALUES (49,'Boneco Articula 30cm - Titan Hero - Hulk',89.99,Now(),'De 11 ou mais','Hasbro',1);</v>
+        <v>INSERT INTO Produtos (codigobarrasprod, Nomeprod, Valor,DataCadastroProd, DescricaoProd, CategoriaProd, QuantidadeProd) VALUES (49,'Boneco Articula 30cm - Titan Hero - Hulk',89.99,Now(),'De 11 ou mais','Hasbro',1);</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -3032,7 +3034,7 @@
       </c>
       <c r="J51" s="2" t="str">
         <f>CONCATENATE(Tabela2[[#This Row],[Column1]],Tabela2[[#This Row],[Codigo barras]],",'",Tabela2[[#This Row],[Nome do brinquedo ]],"',",Tabela2[[#This Row],[Preço]],",","Now()",",'",Tabela2[[#This Row],[Faixa etária ]],"','",Tabela2[[#This Row],[Fabricante]],"',",Tabela2[[#This Row],[Quantidade]],");")</f>
-        <v>INSERT INTO Produtos (codigobarrasprod, Nomeproduto, Valor,ValorDesconto, FaixaEtaria, Fabricante, PrazoGarantia, Quantidade, DataCadastro, statusproduto) VALUES (50,'Carrinho Die Cast - Forza Motorsport',19.99,Now(),'De 11 ou mais','Mattel',1);</v>
+        <v>INSERT INTO Produtos (codigobarrasprod, Nomeprod, Valor,DataCadastroProd, DescricaoProd, CategoriaProd, QuantidadeProd) VALUES (50,'Carrinho Die Cast - Forza Motorsport',19.99,Now(),'De 11 ou mais','Mattel',1);</v>
       </c>
     </row>
     <row r="56" spans="1:10">
